--- a/tareas.xlsx
+++ b/tareas.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>Perspectiva</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>Infraestructura</t>
-  </si>
-  <si>
-    <t>Corregir</t>
   </si>
   <si>
     <t>Perspectiva uso de infraestructura</t>
@@ -202,12 +199,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,7 +523,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,7 +709,7 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -725,7 +723,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -739,7 +737,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -753,15 +751,15 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
         <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -772,15 +770,15 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
     </row>
